--- a/inst/extdata/GH-ZA-Efficiency-sample-2020.xlsx
+++ b/inst/extdata/GH-ZA-Efficiency-sample-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0131B01-8998-8A4B-B095-5C27F7F1DDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECF59DE-3961-1B42-A052-BC350D7C9278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26640" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,12 +67,6 @@
   </si>
   <si>
     <t>MD</t>
-  </si>
-  <si>
-    <t>eta.fu</t>
-  </si>
-  <si>
-    <t>phi.u</t>
   </si>
   <si>
     <t>Diesel cars</t>
@@ -232,6 +226,12 @@
   </si>
   <si>
     <t>MaximumValues</t>
+  </si>
+  <si>
+    <t>phiu</t>
+  </si>
+  <si>
+    <t>etafu</t>
   </si>
 </sst>
 </file>
@@ -734,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -746,13 +746,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2">
         <v>619.25099999999998</v>
@@ -819,7 +819,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I3" s="3">
         <v>0.115638763126426</v>
@@ -854,7 +854,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="6">
@@ -887,7 +887,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="8">
@@ -914,13 +914,13 @@
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2">
         <v>187.70779999999999</v>
@@ -949,13 +949,13 @@
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I7" s="3">
         <v>3.5052503461734399E-2</v>
@@ -984,13 +984,13 @@
         <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="6">
@@ -1017,13 +1017,13 @@
         <v>11</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="8">
@@ -1050,13 +1050,13 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10" s="2">
         <v>187.70779999999999</v>
@@ -1085,13 +1085,13 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I11" s="3">
         <v>3.5052503461734399E-2</v>
@@ -1120,13 +1120,13 @@
         <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="6">
@@ -1153,13 +1153,13 @@
         <v>11</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="8">
@@ -1186,13 +1186,13 @@
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I14" s="2">
         <v>187.01634999999999</v>
@@ -1221,13 +1221,13 @@
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I15" s="3">
         <v>3.4923382277006802E-2</v>
@@ -1256,13 +1256,13 @@
         <v>11</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="6">
@@ -1289,13 +1289,13 @@
         <v>11</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="8">
@@ -1322,13 +1322,13 @@
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I18" s="2">
         <v>70.325800000000001</v>
@@ -1357,13 +1357,13 @@
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I19" s="3">
         <v>1.3132620743246899E-2</v>
@@ -1392,13 +1392,13 @@
         <v>11</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="6">
@@ -1425,13 +1425,13 @@
         <v>11</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="8">
@@ -1458,13 +1458,13 @@
         <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I22" s="2">
         <v>63.162799999999997</v>
@@ -1493,13 +1493,13 @@
         <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I23" s="3">
         <v>1.17950040736338E-2</v>
@@ -1528,13 +1528,13 @@
         <v>11</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="6">
@@ -1561,13 +1561,13 @@
         <v>11</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="8">
@@ -1594,13 +1594,13 @@
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I26" s="2">
         <v>25.8551</v>
@@ -1629,13 +1629,13 @@
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I27" s="3">
         <v>5.84940392307316E-3</v>
@@ -1664,13 +1664,13 @@
         <v>11</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="6">
@@ -1697,13 +1697,13 @@
         <v>11</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="8">
@@ -1730,13 +1730,13 @@
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I30" s="2">
         <v>19.075665000000001</v>
@@ -1765,13 +1765,13 @@
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I31" s="3">
         <v>3.5621844880574199E-3</v>
@@ -1800,13 +1800,13 @@
         <v>11</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="6">
@@ -1833,13 +1833,13 @@
         <v>11</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="8">
@@ -1866,13 +1866,13 @@
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I34" s="2">
         <v>158.903695</v>
@@ -1901,13 +1901,13 @@
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I35" s="3">
         <v>5.4511426362552899E-2</v>
@@ -1936,13 +1936,13 @@
         <v>11</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="6">
@@ -1969,13 +1969,13 @@
         <v>11</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="8">
@@ -2002,13 +2002,13 @@
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I38" s="2">
         <v>26.423500000000001</v>
@@ -2037,13 +2037,13 @@
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I39" s="3">
         <v>7.5442585505446904E-3</v>
@@ -2072,13 +2072,13 @@
         <v>11</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="6">
@@ -2105,13 +2105,13 @@
         <v>11</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="8">
@@ -2138,13 +2138,13 @@
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I42" s="2">
         <v>15.84695</v>
@@ -2171,13 +2171,13 @@
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I43" s="3">
         <v>6.1214049910679798E-3</v>
@@ -2204,13 +2204,13 @@
         <v>11</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="6">
@@ -2235,13 +2235,13 @@
         <v>11</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="8">
@@ -2266,13 +2266,13 @@
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I46" s="2">
         <v>685.27279999999996</v>
@@ -2301,13 +2301,13 @@
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I47" s="3">
         <v>0.127967656081593</v>
@@ -2336,13 +2336,13 @@
         <v>11</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="6">
@@ -2369,13 +2369,13 @@
         <v>11</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="8">
@@ -2402,13 +2402,13 @@
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I50" s="2">
         <v>216.6498</v>
@@ -2437,13 +2437,13 @@
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I51" s="3">
         <v>5.2898461767616402E-2</v>
@@ -2472,13 +2472,13 @@
         <v>11</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="6">
@@ -2505,13 +2505,13 @@
         <v>11</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="8">
@@ -2538,13 +2538,13 @@
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I54" s="2">
         <v>148.09976</v>
@@ -2573,13 +2573,13 @@
         <v>11</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I55" s="3">
         <v>2.7656108856861698E-2</v>
@@ -2608,13 +2608,13 @@
         <v>11</v>
       </c>
       <c r="F56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H56" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="6">
@@ -2641,13 +2641,13 @@
         <v>11</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H57" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="8">
@@ -2674,13 +2674,13 @@
         <v>11</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I58" s="2">
         <v>19.075665000000001</v>
@@ -2709,13 +2709,13 @@
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I59" s="3">
         <v>3.5621844880574199E-3</v>
@@ -2744,13 +2744,13 @@
         <v>11</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="6">
@@ -2777,13 +2777,13 @@
         <v>11</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="8">
@@ -2810,13 +2810,13 @@
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I62" s="2">
         <v>4.5190000000000001</v>
@@ -2843,13 +2843,13 @@
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I63" s="3">
         <v>8.43876829538132E-4</v>
@@ -2876,13 +2876,13 @@
         <v>11</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="6"/>
@@ -2907,13 +2907,13 @@
         <v>11</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="8"/>
@@ -2938,13 +2938,13 @@
         <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I66" s="2">
         <v>1.1608000000000001</v>
@@ -2971,13 +2971,13 @@
         <v>11</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I67" s="3">
         <v>4.4839713090731701E-4</v>
@@ -3004,13 +3004,13 @@
         <v>11</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="6">
@@ -3035,13 +3035,13 @@
         <v>11</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="8">
@@ -3066,13 +3066,13 @@
         <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I70" s="2">
         <v>2111.7321999999999</v>
@@ -3101,13 +3101,13 @@
         <v>11</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I71" s="3">
         <v>0.56556649190973096</v>
@@ -3136,13 +3136,13 @@
         <v>11</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="6">
@@ -3169,13 +3169,13 @@
         <v>11</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="8">
@@ -3202,13 +3202,13 @@
         <v>11</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I74" s="2">
         <v>515.68740000000003</v>
@@ -3237,13 +3237,13 @@
         <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I75" s="3">
         <v>9.6299324661376903E-2</v>
@@ -3272,13 +3272,13 @@
         <v>11</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="6">
@@ -3305,13 +3305,13 @@
         <v>11</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="8">
@@ -3338,13 +3338,13 @@
         <v>11</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I78" s="2">
         <v>83.691599999999994</v>
@@ -3373,13 +3373,13 @@
         <v>11</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I79" s="3">
         <v>3.2328629670092E-2</v>
@@ -3408,13 +3408,13 @@
         <v>11</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="6">
@@ -3441,13 +3441,13 @@
         <v>11</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="8">
@@ -3474,13 +3474,13 @@
         <v>11</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I82" s="2">
         <v>36.151699999999998</v>
@@ -3509,13 +3509,13 @@
         <v>11</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I83" s="3">
         <v>6.7509586143867399E-3</v>
@@ -3544,13 +3544,13 @@
         <v>11</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="6">
@@ -3577,13 +3577,13 @@
         <v>11</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="8">
@@ -3610,13 +3610,13 @@
         <v>11</v>
       </c>
       <c r="F86" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H86" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I86" s="2">
         <v>19.075665000000001</v>
@@ -3645,13 +3645,13 @@
         <v>11</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H87" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I87" s="3">
         <v>3.5621844880574199E-3</v>
@@ -3680,13 +3680,13 @@
         <v>11</v>
       </c>
       <c r="F88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="H88" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="6">
@@ -3713,13 +3713,13 @@
         <v>11</v>
       </c>
       <c r="F89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="H89" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="8">
@@ -3746,13 +3746,13 @@
         <v>11</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I90" s="2">
         <v>5.5890000000000004</v>
@@ -3779,13 +3779,13 @@
         <v>11</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I91" s="3">
         <v>1.0305607070785999E-3</v>
@@ -3812,13 +3812,13 @@
         <v>11</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="6"/>
@@ -3843,13 +3843,13 @@
         <v>11</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="8"/>
@@ -3874,13 +3874,13 @@
         <v>11</v>
       </c>
       <c r="F94" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H94" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I94" s="2">
         <v>31.0977</v>
@@ -3909,13 +3909,13 @@
         <v>11</v>
       </c>
       <c r="F95" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H95" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I95" s="3">
         <v>6.9266799683738896E-3</v>
@@ -3944,13 +3944,13 @@
         <v>11</v>
       </c>
       <c r="F96" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G96" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="H96" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="6">
@@ -3977,13 +3977,13 @@
         <v>11</v>
       </c>
       <c r="F97" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G97" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="H97" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="8">
@@ -4010,13 +4010,13 @@
         <v>11</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I98" s="2">
         <v>31.527699999999999</v>
@@ -4043,13 +4043,13 @@
         <v>11</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I99" s="3">
         <v>5.8134207916553798E-3</v>
@@ -4076,13 +4076,13 @@
         <v>11</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="6"/>
@@ -4107,13 +4107,13 @@
         <v>11</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="8"/>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>8</v>
@@ -4138,13 +4138,13 @@
         <v>11</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I102" s="2">
         <v>3295.5133999999998</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>8</v>
@@ -4173,13 +4173,13 @@
         <v>11</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I103" s="3">
         <v>9.9221857814081202E-2</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>8</v>
@@ -4208,13 +4208,13 @@
         <v>11</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="6">
@@ -4226,7 +4226,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>8</v>
@@ -4241,13 +4241,13 @@
         <v>11</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="8">
@@ -4259,7 +4259,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>8</v>
@@ -4274,13 +4274,13 @@
         <v>11</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I106" s="2">
         <v>5168.6931100000002</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>8</v>
@@ -4309,13 +4309,13 @@
         <v>11</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I107" s="3">
         <v>9.8483151849489303E-2</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>8</v>
@@ -4344,13 +4344,13 @@
         <v>11</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I108" s="5"/>
       <c r="J108" s="6">
@@ -4362,7 +4362,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>8</v>
@@ -4377,13 +4377,13 @@
         <v>11</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="8">
@@ -4395,7 +4395,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>8</v>
@@ -4410,13 +4410,13 @@
         <v>11</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I110" s="2">
         <v>4109.3926000000001</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>8</v>
@@ -4445,13 +4445,13 @@
         <v>11</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I111" s="3">
         <v>7.8299470837603594E-2</v>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>8</v>
@@ -4480,13 +4480,13 @@
         <v>11</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I112" s="5"/>
       <c r="J112" s="6">
@@ -4498,7 +4498,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>8</v>
@@ -4513,13 +4513,13 @@
         <v>11</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="8">
@@ -4531,7 +4531,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>8</v>
@@ -4552,7 +4552,7 @@
         <v>13</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I114" s="2">
         <v>4029.2543000000001</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>8</v>
@@ -4587,7 +4587,7 @@
         <v>13</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I115" s="3">
         <v>7.6772533137899501E-2</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>8</v>
@@ -4622,7 +4622,7 @@
         <v>13</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I116" s="5"/>
       <c r="J116" s="6">
@@ -4634,7 +4634,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>8</v>
@@ -4655,7 +4655,7 @@
         <v>13</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="8">
@@ -4667,28 +4667,28 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I118" s="2">
         <v>2496.8186000000001</v>
@@ -4702,28 +4702,28 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I119" s="3">
         <v>4.75738373494628E-2</v>
@@ -4737,28 +4737,28 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="6">
@@ -4770,28 +4770,28 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="8">
@@ -4803,7 +4803,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>8</v>
@@ -4818,13 +4818,13 @@
         <v>11</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I122" s="2">
         <v>1673.8107</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>8</v>
@@ -4853,13 +4853,13 @@
         <v>11</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I123" s="3">
         <v>3.1892424221603703E-2</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>8</v>
@@ -4888,13 +4888,13 @@
         <v>11</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I124" s="5"/>
       <c r="J124" s="6">
@@ -4906,7 +4906,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>8</v>
@@ -4921,13 +4921,13 @@
         <v>11</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="8">
@@ -4939,7 +4939,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>8</v>
@@ -4954,13 +4954,13 @@
         <v>11</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I126" s="2">
         <v>1672.8117</v>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>8</v>
@@ -4989,13 +4989,13 @@
         <v>11</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I127" s="3">
         <v>3.1873389493364997E-2</v>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>8</v>
@@ -5024,13 +5024,13 @@
         <v>11</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I128" s="5"/>
       <c r="J128" s="6">
@@ -5042,7 +5042,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>8</v>
@@ -5057,13 +5057,13 @@
         <v>11</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="8">
@@ -5075,7 +5075,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>8</v>
@@ -5090,13 +5090,13 @@
         <v>11</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I130" s="2">
         <v>739.81083000000001</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>8</v>
@@ -5125,13 +5125,13 @@
         <v>11</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I131" s="3">
         <v>1.40961942913238E-2</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>8</v>
@@ -5160,13 +5160,13 @@
         <v>11</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I132" s="5"/>
       <c r="J132" s="6">
@@ -5178,7 +5178,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>8</v>
@@ -5193,13 +5193,13 @@
         <v>11</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="8">
@@ -5211,7 +5211,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>8</v>
@@ -5226,13 +5226,13 @@
         <v>11</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I134" s="2">
         <v>614.11339999999996</v>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>8</v>
@@ -5261,13 +5261,13 @@
         <v>11</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I135" s="3">
         <v>1.170118285955E-2</v>
@@ -5281,7 +5281,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>8</v>
@@ -5296,13 +5296,13 @@
         <v>11</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I136" s="5"/>
       <c r="J136" s="6">
@@ -5314,7 +5314,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>8</v>
@@ -5329,13 +5329,13 @@
         <v>11</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="8">
@@ -5347,7 +5347,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>8</v>
@@ -5362,13 +5362,13 @@
         <v>11</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I138" s="2">
         <v>518.56809999999996</v>
@@ -5380,7 +5380,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>8</v>
@@ -5395,13 +5395,13 @@
         <v>11</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I139" s="3">
         <v>9.8806835402539799E-3</v>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>8</v>
@@ -5428,13 +5428,13 @@
         <v>11</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I140" s="5"/>
       <c r="J140" s="6"/>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>8</v>
@@ -5459,13 +5459,13 @@
         <v>11</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="8"/>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>8</v>
@@ -5490,13 +5490,13 @@
         <v>11</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I142" s="2">
         <v>162.08090000000001</v>
@@ -5510,7 +5510,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>8</v>
@@ -5525,13 +5525,13 @@
         <v>11</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I143" s="3">
         <v>3.0882541383080702E-3</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>8</v>
@@ -5560,13 +5560,13 @@
         <v>11</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I144" s="5"/>
       <c r="J144" s="6">
@@ -5578,7 +5578,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>8</v>
@@ -5593,13 +5593,13 @@
         <v>11</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="8">
@@ -5611,7 +5611,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>8</v>
@@ -5626,13 +5626,13 @@
         <v>11</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I146" s="2">
         <v>102.61539999999999</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>8</v>
@@ -5659,13 +5659,13 @@
         <v>11</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I147" s="3">
         <v>1.9552114635601001E-3</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>8</v>
@@ -5692,13 +5692,13 @@
         <v>11</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I148" s="5"/>
       <c r="J148" s="6"/>
@@ -5708,7 +5708,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>8</v>
@@ -5723,13 +5723,13 @@
         <v>11</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="8"/>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>8</v>
@@ -5754,13 +5754,13 @@
         <v>11</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I150" s="2">
         <v>33.663899999999998</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>8</v>
@@ -5787,13 +5787,13 @@
         <v>11</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I151" s="3">
         <v>6.41424612564398E-4</v>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>8</v>
@@ -5820,13 +5820,13 @@
         <v>11</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I152" s="5"/>
       <c r="J152" s="6"/>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>8</v>
@@ -5851,13 +5851,13 @@
         <v>11</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="8"/>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>8</v>
@@ -5882,13 +5882,13 @@
         <v>11</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I154" s="2">
         <v>6263.6178600000003</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>8</v>
@@ -5917,13 +5917,13 @@
         <v>11</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I155" s="3">
         <v>0.11934560936498601</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>8</v>
@@ -5952,13 +5952,13 @@
         <v>11</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I156" s="5"/>
       <c r="J156" s="6">
@@ -5970,7 +5970,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>8</v>
@@ -5985,13 +5985,13 @@
         <v>11</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="8">
@@ -6003,7 +6003,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>8</v>
@@ -6018,13 +6018,13 @@
         <v>11</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I158" s="2">
         <v>149.78620000000001</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>8</v>
@@ -6051,13 +6051,13 @@
         <v>11</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I159" s="3">
         <v>2.8539936044989899E-3</v>
@@ -6069,7 +6069,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>8</v>
@@ -6084,13 +6084,13 @@
         <v>11</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="6"/>
@@ -6100,7 +6100,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>8</v>
@@ -6115,13 +6115,13 @@
         <v>11</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="8"/>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>8</v>
@@ -6146,13 +6146,13 @@
         <v>11</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I162" s="2">
         <v>115.44604</v>
@@ -6166,7 +6166,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>8</v>
@@ -6181,13 +6181,13 @@
         <v>11</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I163" s="3">
         <v>2.1996836813053099E-3</v>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>8</v>
@@ -6216,13 +6216,13 @@
         <v>11</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="6">
@@ -6234,7 +6234,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>8</v>
@@ -6249,13 +6249,13 @@
         <v>11</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="8">
@@ -6267,7 +6267,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>8</v>
@@ -6282,13 +6282,13 @@
         <v>11</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I166" s="2">
         <v>7157.4813000000004</v>
@@ -6302,7 +6302,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>8</v>
@@ -6317,13 +6317,13 @@
         <v>11</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I167" s="3">
         <v>0.215498620595973</v>
@@ -6337,7 +6337,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>8</v>
@@ -6352,13 +6352,13 @@
         <v>11</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="6">
@@ -6370,7 +6370,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>8</v>
@@ -6385,13 +6385,13 @@
         <v>11</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="8">
@@ -6403,7 +6403,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>8</v>
@@ -6418,13 +6418,13 @@
         <v>11</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I170" s="2">
         <v>1683.98972</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>8</v>
@@ -6453,13 +6453,13 @@
         <v>11</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I171" s="3">
         <v>3.2086373049867299E-2</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>8</v>
@@ -6488,13 +6488,13 @@
         <v>11</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I172" s="5"/>
       <c r="J172" s="6">
@@ -6506,7 +6506,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>8</v>
@@ -6521,13 +6521,13 @@
         <v>11</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="8">
@@ -6539,7 +6539,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>8</v>
@@ -6554,13 +6554,13 @@
         <v>11</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I174" s="2">
         <v>1052.3454999999999</v>
@@ -6572,7 +6572,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>8</v>
@@ -6587,13 +6587,13 @@
         <v>11</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I175" s="3">
         <v>2.0051161767394399E-2</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>8</v>
@@ -6620,13 +6620,13 @@
         <v>11</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I176" s="5"/>
       <c r="J176" s="6"/>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>8</v>
@@ -6651,13 +6651,13 @@
         <v>11</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="8"/>
@@ -6667,7 +6667,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>8</v>
@@ -6682,13 +6682,13 @@
         <v>11</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I178" s="2">
         <v>579.93690000000004</v>
@@ -6700,7 +6700,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>8</v>
@@ -6715,13 +6715,13 @@
         <v>11</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I179" s="3">
         <v>1.74608352777261E-2</v>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>8</v>
@@ -6748,13 +6748,13 @@
         <v>11</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="6">
@@ -6764,7 +6764,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>8</v>
@@ -6779,13 +6779,13 @@
         <v>11</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="8">
@@ -6795,7 +6795,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>8</v>
@@ -6810,13 +6810,13 @@
         <v>11</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I182" s="2">
         <v>170.63630000000001</v>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>8</v>
@@ -6845,13 +6845,13 @@
         <v>11</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I183" s="3">
         <v>3.25126686500739E-3</v>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>8</v>
@@ -6880,13 +6880,13 @@
         <v>11</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I184" s="5"/>
       <c r="J184" s="6">
@@ -6898,7 +6898,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>8</v>
@@ -6913,13 +6913,13 @@
         <v>11</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="8">
@@ -6931,7 +6931,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>8</v>
@@ -6946,13 +6946,13 @@
         <v>11</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I186" s="2">
         <v>3459.1066999999998</v>
@@ -6966,7 +6966,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>8</v>
@@ -6981,13 +6981,13 @@
         <v>11</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I187" s="3">
         <v>6.5909065047912205E-2</v>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>8</v>
@@ -7016,13 +7016,13 @@
         <v>11</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I188" s="5"/>
       <c r="J188" s="6">
@@ -7034,7 +7034,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>8</v>
@@ -7049,13 +7049,13 @@
         <v>11</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="8">
@@ -7067,7 +7067,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>8</v>
@@ -7082,13 +7082,13 @@
         <v>11</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I190" s="2">
         <v>1508.4313</v>
@@ -7102,7 +7102,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>8</v>
@@ -7117,13 +7117,13 @@
         <v>11</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I191" s="3">
         <v>2.87413211833005E-2</v>
@@ -7137,7 +7137,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>8</v>
@@ -7152,13 +7152,13 @@
         <v>11</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I192" s="5"/>
       <c r="J192" s="6">
@@ -7170,7 +7170,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>8</v>
@@ -7185,13 +7185,13 @@
         <v>11</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="8">
@@ -7203,7 +7203,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>8</v>
@@ -7218,13 +7218,13 @@
         <v>11</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I194" s="2">
         <v>1233.0180499999999</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>8</v>
@@ -7253,13 +7253,13 @@
         <v>11</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I195" s="3">
         <v>2.3493657152206301E-2</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>8</v>
@@ -7288,13 +7288,13 @@
         <v>11</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I196" s="5"/>
       <c r="J196" s="6">
@@ -7306,7 +7306,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>8</v>
@@ -7321,13 +7321,13 @@
         <v>11</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="8">
@@ -7339,7 +7339,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>8</v>
@@ -7354,13 +7354,13 @@
         <v>11</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I198" s="2">
         <v>559.68759999999997</v>
@@ -7374,7 +7374,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>8</v>
@@ -7389,13 +7389,13 @@
         <v>11</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I199" s="3">
         <v>1.6851166033038899E-2</v>
@@ -7409,7 +7409,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>8</v>
@@ -7424,13 +7424,13 @@
         <v>11</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I200" s="5"/>
       <c r="J200" s="6">
@@ -7442,7 +7442,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>8</v>
@@ -7457,13 +7457,13 @@
         <v>11</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="8">
@@ -7475,7 +7475,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>8</v>
@@ -7490,13 +7490,13 @@
         <v>11</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I202" s="2">
         <v>523.55020000000002</v>
@@ -7508,7 +7508,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>8</v>
@@ -7523,13 +7523,13 @@
         <v>11</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I203" s="3">
         <v>1.5763135268372402E-2</v>
@@ -7541,7 +7541,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>8</v>
@@ -7556,13 +7556,13 @@
         <v>11</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I204" s="5"/>
       <c r="J204" s="6">
@@ -7572,7 +7572,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>8</v>
@@ -7587,13 +7587,13 @@
         <v>11</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="8">
@@ -7603,7 +7603,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>8</v>
@@ -7618,13 +7618,13 @@
         <v>11</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I206" s="2">
         <v>574.6345</v>
@@ -7638,7 +7638,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>8</v>
@@ -7653,13 +7653,13 @@
         <v>11</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I207" s="3">
         <v>1.09489605045356E-2</v>
@@ -7673,7 +7673,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>8</v>
@@ -7688,13 +7688,13 @@
         <v>11</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I208" s="5"/>
       <c r="J208" s="6">
@@ -7706,7 +7706,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>8</v>
@@ -7721,13 +7721,13 @@
         <v>11</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="8">
@@ -7739,7 +7739,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>8</v>
@@ -7754,13 +7754,13 @@
         <v>11</v>
       </c>
       <c r="F210" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G210" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H210" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I210" s="2">
         <v>477.73973000000001</v>
@@ -7774,7 +7774,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>8</v>
@@ -7789,13 +7789,13 @@
         <v>11</v>
       </c>
       <c r="F211" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G211" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H211" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I211" s="3">
         <v>9.1027486780162099E-3</v>
@@ -7809,7 +7809,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>8</v>
@@ -7824,13 +7824,13 @@
         <v>11</v>
       </c>
       <c r="F212" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G212" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G212" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H212" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I212" s="5"/>
       <c r="J212" s="6">
@@ -7842,7 +7842,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>8</v>
@@ -7857,13 +7857,13 @@
         <v>11</v>
       </c>
       <c r="F213" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G213" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G213" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H213" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="8">
@@ -7875,7 +7875,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>8</v>
@@ -7890,13 +7890,13 @@
         <v>11</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I214" s="2">
         <v>119.7526</v>
@@ -7910,7 +7910,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>8</v>
@@ -7925,13 +7925,13 @@
         <v>11</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I215" s="3">
         <v>3.6055309166901101E-3</v>
@@ -7945,7 +7945,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>8</v>
@@ -7960,13 +7960,13 @@
         <v>11</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I216" s="5"/>
       <c r="J216" s="6">
@@ -7978,7 +7978,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>8</v>
@@ -7993,13 +7993,13 @@
         <v>11</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="8">
@@ -8011,7 +8011,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>8</v>
@@ -8026,13 +8026,13 @@
         <v>11</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I218" s="2">
         <v>76.729799999999997</v>
@@ -8044,7 +8044,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>8</v>
@@ -8059,13 +8059,13 @@
         <v>11</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I219" s="3">
         <v>2.3101933998213699E-3</v>
@@ -8077,7 +8077,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>8</v>
@@ -8092,13 +8092,13 @@
         <v>11</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I220" s="5"/>
       <c r="J220" s="6">
@@ -8108,7 +8108,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>8</v>
@@ -8123,13 +8123,13 @@
         <v>11</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="8">
@@ -8139,7 +8139,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>8</v>
@@ -8154,13 +8154,13 @@
         <v>11</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I222" s="2">
         <v>10.989000000000001</v>
@@ -8172,7 +8172,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>8</v>
@@ -8187,13 +8187,13 @@
         <v>11</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I223" s="3">
         <v>2.09382010624739E-4</v>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>8</v>
@@ -8220,13 +8220,13 @@
         <v>11</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I224" s="5"/>
       <c r="J224" s="6"/>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>8</v>
@@ -8251,13 +8251,13 @@
         <v>11</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="8"/>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>8</v>
@@ -8282,13 +8282,13 @@
         <v>11</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I226" s="2">
         <v>3.0750000000000002</v>
@@ -8300,7 +8300,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>8</v>
@@ -8315,13 +8315,13 @@
         <v>11</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I227" s="3">
         <v>5.8590379713447398E-5</v>
@@ -8333,7 +8333,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>8</v>
@@ -8348,13 +8348,13 @@
         <v>11</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I228" s="5"/>
       <c r="J228" s="6"/>
@@ -8364,7 +8364,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>8</v>
@@ -8379,13 +8379,13 @@
         <v>11</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="8"/>
@@ -8395,7 +8395,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>8</v>
@@ -8410,13 +8410,13 @@
         <v>11</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I230" s="2">
         <v>2787.4749000000002</v>
@@ -8430,7 +8430,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>8</v>
@@ -8445,13 +8445,13 @@
         <v>11</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I231" s="3">
         <v>5.8248812114756798E-2</v>
@@ -8465,7 +8465,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>8</v>
@@ -8480,13 +8480,13 @@
         <v>11</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I232" s="5"/>
       <c r="J232" s="6">
@@ -8498,7 +8498,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>8</v>
@@ -8513,13 +8513,13 @@
         <v>11</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="8">
@@ -8531,7 +8531,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>8</v>
@@ -8546,13 +8546,13 @@
         <v>11</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I234" s="2">
         <v>658.40260000000001</v>
@@ -8566,7 +8566,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>8</v>
@@ -8581,13 +8581,13 @@
         <v>11</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I235" s="3">
         <v>1.25450596222182E-2</v>
@@ -8601,7 +8601,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>8</v>
@@ -8616,13 +8616,13 @@
         <v>11</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I236" s="5"/>
       <c r="J236" s="6">
@@ -8634,7 +8634,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>8</v>
@@ -8649,13 +8649,13 @@
         <v>11</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I237" s="7"/>
       <c r="J237" s="8">
@@ -8667,7 +8667,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>8</v>
@@ -8682,13 +8682,13 @@
         <v>11</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I238" s="2">
         <v>145.2114</v>
@@ -8700,7 +8700,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>8</v>
@@ -8715,13 +8715,13 @@
         <v>11</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I239" s="3">
         <v>2.76682636251099E-3</v>
@@ -8733,7 +8733,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>8</v>
@@ -8748,13 +8748,13 @@
         <v>11</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I240" s="5"/>
       <c r="J240" s="6"/>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>8</v>
@@ -8779,13 +8779,13 @@
         <v>11</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I241" s="7"/>
       <c r="J241" s="8"/>
@@ -8795,7 +8795,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>8</v>
@@ -8810,13 +8810,13 @@
         <v>11</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I242" s="2">
         <v>46.914400000000001</v>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>8</v>
@@ -8843,13 +8843,13 @@
         <v>11</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I243" s="3">
         <v>8.9389675122879904E-4</v>
@@ -8861,7 +8861,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>8</v>
@@ -8876,13 +8876,13 @@
         <v>11</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I244" s="5"/>
       <c r="J244" s="6"/>
@@ -8892,7 +8892,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>8</v>
@@ -8907,13 +8907,13 @@
         <v>11</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I245" s="7"/>
       <c r="J245" s="8"/>
@@ -8923,7 +8923,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>8</v>
@@ -8938,13 +8938,13 @@
         <v>11</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I246" s="2">
         <v>44.490400000000001</v>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>8</v>
@@ -8971,13 +8971,13 @@
         <v>11</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I247" s="3">
         <v>8.4771038361078398E-4</v>
@@ -8989,7 +8989,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>8</v>
@@ -9004,13 +9004,13 @@
         <v>11</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I248" s="5"/>
       <c r="J248" s="6"/>
@@ -9020,7 +9020,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>8</v>
@@ -9035,13 +9035,13 @@
         <v>11</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I249" s="7"/>
       <c r="J249" s="8"/>
@@ -9051,7 +9051,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>8</v>
@@ -9066,13 +9066,13 @@
         <v>11</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I250" s="2">
         <v>3.0990000000000002</v>
@@ -9084,7 +9084,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>8</v>
@@ -9099,13 +9099,13 @@
         <v>11</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I251" s="3">
         <v>5.9047670481942602E-5</v>
@@ -9117,7 +9117,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>8</v>
@@ -9132,13 +9132,13 @@
         <v>11</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I252" s="5"/>
       <c r="J252" s="6"/>
@@ -9148,7 +9148,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>8</v>
@@ -9163,13 +9163,13 @@
         <v>11</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I253" s="7"/>
       <c r="J253" s="8"/>
@@ -9179,7 +9179,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>8</v>
@@ -9194,13 +9194,13 @@
         <v>11</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I254" s="2">
         <v>0.52236000000000005</v>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>8</v>
@@ -9227,13 +9227,13 @@
         <v>11</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I255" s="3">
         <v>9.9529335762980199E-6</v>
@@ -9245,7 +9245,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>8</v>
@@ -9260,13 +9260,13 @@
         <v>11</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I256" s="5"/>
       <c r="J256" s="6"/>
@@ -9276,7 +9276,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>8</v>
@@ -9291,13 +9291,13 @@
         <v>11</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I257" s="7"/>
       <c r="J257" s="8"/>
@@ -9307,7 +9307,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>8</v>
@@ -9322,13 +9322,13 @@
         <v>11</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I258" s="2">
         <v>3140.1194</v>
@@ -9342,7 +9342,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>8</v>
@@ -9357,13 +9357,13 @@
         <v>11</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I259" s="3">
         <v>9.4543229782053997E-2</v>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>8</v>
@@ -9392,13 +9392,13 @@
         <v>11</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I260" s="5"/>
       <c r="J260" s="6">
@@ -9410,7 +9410,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>8</v>
@@ -9425,13 +9425,13 @@
         <v>11</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I261" s="7"/>
       <c r="J261" s="8">
@@ -9443,7 +9443,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>8</v>
@@ -9458,13 +9458,13 @@
         <v>11</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I262" s="2">
         <v>2787.4749000000002</v>
@@ -9478,7 +9478,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>8</v>
@@ -9493,13 +9493,13 @@
         <v>11</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I263" s="3">
         <v>5.8248812114756798E-2</v>
@@ -9513,7 +9513,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>8</v>
@@ -9528,13 +9528,13 @@
         <v>11</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I264" s="5"/>
       <c r="J264" s="6">
@@ -9546,7 +9546,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B265" s="4" t="s">
         <v>8</v>
@@ -9561,13 +9561,13 @@
         <v>11</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I265" s="7"/>
       <c r="J265" s="8">
@@ -9579,7 +9579,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>8</v>
@@ -9594,13 +9594,13 @@
         <v>11</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I266" s="2">
         <v>971.52470000000005</v>
@@ -9614,7 +9614,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>8</v>
@@ -9629,13 +9629,13 @@
         <v>11</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I267" s="3">
         <v>2.3353457600023001E-2</v>
@@ -9649,7 +9649,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>8</v>
@@ -9664,13 +9664,13 @@
         <v>11</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I268" s="5"/>
       <c r="J268" s="6">
@@ -9682,7 +9682,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>8</v>
@@ -9697,13 +9697,13 @@
         <v>11</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I269" s="7"/>
       <c r="J269" s="8">
@@ -9715,7 +9715,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>8</v>
@@ -9730,13 +9730,13 @@
         <v>11</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I270" s="2">
         <v>551.62660000000005</v>
@@ -9748,7 +9748,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>8</v>
@@ -9763,13 +9763,13 @@
         <v>11</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I271" s="3">
         <v>1.0510572993183099E-2</v>
@@ -9781,7 +9781,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>8</v>
@@ -9796,13 +9796,13 @@
         <v>11</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H272" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I272" s="5"/>
       <c r="J272" s="6"/>
@@ -9812,7 +9812,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>8</v>
@@ -9827,13 +9827,13 @@
         <v>11</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H273" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I273" s="7"/>
       <c r="J273" s="8"/>
@@ -9843,7 +9843,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>8</v>
@@ -9858,13 +9858,13 @@
         <v>11</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I274" s="2">
         <v>145.2114</v>
@@ -9876,7 +9876,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>8</v>
@@ -9891,13 +9891,13 @@
         <v>11</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I275" s="3">
         <v>2.76682636251099E-3</v>
@@ -9909,7 +9909,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>8</v>
@@ -9924,13 +9924,13 @@
         <v>11</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H276" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I276" s="5"/>
       <c r="J276" s="6"/>
@@ -9940,7 +9940,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>8</v>
@@ -9955,13 +9955,13 @@
         <v>11</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H277" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I277" s="7"/>
       <c r="J277" s="8"/>
@@ -9971,7 +9971,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>8</v>
@@ -9986,13 +9986,13 @@
         <v>11</v>
       </c>
       <c r="F278" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G278" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G278" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="H278" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I278" s="2">
         <v>13.986000000000001</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>8</v>
@@ -10019,13 +10019,13 @@
         <v>11</v>
       </c>
       <c r="F279" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G279" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G279" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="H279" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I279" s="3">
         <v>2.6648619534057799E-4</v>
@@ -10037,7 +10037,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>8</v>
@@ -10052,13 +10052,13 @@
         <v>11</v>
       </c>
       <c r="F280" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G280" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G280" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="H280" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I280" s="5"/>
       <c r="J280" s="6"/>
@@ -10068,7 +10068,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>8</v>
@@ -10083,13 +10083,13 @@
         <v>11</v>
       </c>
       <c r="F281" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G281" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G281" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="H281" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I281" s="7"/>
       <c r="J281" s="8"/>
@@ -10099,7 +10099,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>8</v>
@@ -10114,13 +10114,13 @@
         <v>11</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I282" s="2">
         <v>214.2448</v>
@@ -10134,7 +10134,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>8</v>
@@ -10149,13 +10149,13 @@
         <v>11</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I283" s="3">
         <v>5.4014215239464496E-3</v>
@@ -10169,7 +10169,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>8</v>
@@ -10184,13 +10184,13 @@
         <v>11</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H284" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I284" s="5"/>
       <c r="J284" s="6">
@@ -10202,7 +10202,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>8</v>
@@ -10217,13 +10217,13 @@
         <v>11</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I285" s="7"/>
       <c r="J285" s="8">
@@ -10235,7 +10235,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>8</v>
@@ -10250,13 +10250,13 @@
         <v>11</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I286" s="2">
         <v>747.95450000000005</v>
@@ -10268,7 +10268,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>8</v>
@@ -10283,13 +10283,13 @@
         <v>11</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I287" s="3">
         <v>2.19046173823912E-2</v>
@@ -10301,7 +10301,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>8</v>
@@ -10316,13 +10316,13 @@
         <v>11</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G288" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H288" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I288" s="5"/>
       <c r="J288" s="6">
@@ -10332,7 +10332,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>8</v>
@@ -10347,13 +10347,13 @@
         <v>11</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H289" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I289" s="7"/>
       <c r="J289" s="8">
@@ -10363,7 +10363,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>8</v>
@@ -10378,13 +10378,13 @@
         <v>11</v>
       </c>
       <c r="F290" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G290" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G290" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H290" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I290" s="2">
         <v>79.249099999999999</v>
@@ -10396,7 +10396,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>8</v>
@@ -10411,13 +10411,13 @@
         <v>11</v>
       </c>
       <c r="F291" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G291" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G291" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H291" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I291" s="3">
         <v>1.3631066450746699E-3</v>
@@ -10429,7 +10429,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B292" s="4" t="s">
         <v>8</v>
@@ -10444,13 +10444,13 @@
         <v>11</v>
       </c>
       <c r="F292" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G292" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G292" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="H292" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I292" s="5"/>
       <c r="J292" s="6"/>
@@ -10460,7 +10460,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>8</v>
@@ -10475,13 +10475,13 @@
         <v>11</v>
       </c>
       <c r="F293" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G293" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G293" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="H293" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I293" s="7"/>
       <c r="J293" s="8"/>
@@ -10491,7 +10491,7 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>8</v>
@@ -10506,13 +10506,13 @@
         <v>11</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I294" s="2">
         <v>5284.6855999999998</v>
@@ -10524,7 +10524,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>8</v>
@@ -10539,13 +10539,13 @@
         <v>11</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I295" s="3">
         <v>9.08980677192604E-2</v>
@@ -10557,7 +10557,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>8</v>
@@ -10572,13 +10572,13 @@
         <v>11</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G296" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H296" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I296" s="5"/>
       <c r="J296" s="6"/>
@@ -10588,7 +10588,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>8</v>
@@ -10603,13 +10603,13 @@
         <v>11</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H297" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I297" s="7"/>
       <c r="J297" s="8"/>
@@ -10619,7 +10619,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>8</v>
@@ -10634,13 +10634,13 @@
         <v>11</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I298" s="2">
         <v>6.6877000000000004</v>
@@ -10652,7 +10652,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>8</v>
@@ -10667,13 +10667,13 @@
         <v>11</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I299" s="3">
         <v>1.15030307098325E-4</v>
@@ -10685,7 +10685,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>8</v>
@@ -10700,13 +10700,13 @@
         <v>11</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H300" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I300" s="5"/>
       <c r="J300" s="6"/>
@@ -10716,7 +10716,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>8</v>
@@ -10731,13 +10731,13 @@
         <v>11</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G301" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H301" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I301" s="7"/>
       <c r="J301" s="8"/>
@@ -10747,7 +10747,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>8</v>
@@ -10762,13 +10762,13 @@
         <v>11</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G302" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H302" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H302" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="I302" s="2">
         <v>70.034999999999997</v>
@@ -10780,7 +10780,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>8</v>
@@ -10795,13 +10795,13 @@
         <v>11</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H303" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I303" s="3">
         <v>1.2046215526460801E-3</v>
@@ -10813,7 +10813,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>8</v>
@@ -10828,13 +10828,13 @@
         <v>11</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H304" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I304" s="5"/>
       <c r="J304" s="6"/>
@@ -10844,7 +10844,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B305" s="4" t="s">
         <v>8</v>
@@ -10859,13 +10859,13 @@
         <v>11</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G305" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H305" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I305" s="7"/>
       <c r="J305" s="8"/>
